--- a/Daily/ACF - PACF/First Difference/fast_retailing residuals - values.xlsx
+++ b/Daily/ACF - PACF/First Difference/fast_retailing residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001589464184080146</v>
+        <v>-0.006347852424588086</v>
       </c>
       <c r="C3">
-        <v>0.00159007953993925</v>
+        <v>-0.00635030997488797</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01512601719921887</v>
+        <v>0.002725783838291328</v>
       </c>
       <c r="C4">
-        <v>0.01513524362567382</v>
+        <v>0.002687677159960557</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03276675656960038</v>
+        <v>-0.008696052060718589</v>
       </c>
       <c r="C5">
-        <v>0.03276465895928793</v>
+        <v>-0.008672228189060558</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.009898301299207027</v>
+        <v>0.002571950894492415</v>
       </c>
       <c r="C6">
-        <v>-0.0102425526289631</v>
+        <v>0.002459051763211699</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005006434726176301</v>
+        <v>-0.007957390408317977</v>
       </c>
       <c r="C7">
-        <v>0.004056037666036389</v>
+        <v>-0.007895540408319347</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02336367717482818</v>
+        <v>0.0006161358588083351</v>
       </c>
       <c r="C8">
-        <v>-0.02423460853963063</v>
+        <v>0.000429181763737139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001079939394542308</v>
+        <v>-0.004947661400168456</v>
       </c>
       <c r="C9">
-        <v>0.001680884905673726</v>
+        <v>-0.00487031788224843</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.004844716467823152</v>
+        <v>-0.003576543095078917</v>
       </c>
       <c r="C10">
-        <v>-0.0045587528938861</v>
+        <v>-0.003796545864528656</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.01857419946170372</v>
+        <v>-0.01628780908159509</v>
       </c>
       <c r="C11">
-        <v>-0.01703004950077177</v>
+        <v>-0.01632105980944487</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01020492350354774</v>
+        <v>0.001185269945574608</v>
       </c>
       <c r="C12">
-        <v>0.009877388862390823</v>
+        <v>0.0008523609040371657</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.02750256808856184</v>
+        <v>-0.01811879914800367</v>
       </c>
       <c r="C13">
-        <v>-0.02663092407674169</v>
+        <v>-0.01814224159742547</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0004114254282371903</v>
+        <v>-0.007017594461309771</v>
       </c>
       <c r="C14">
-        <v>0.0007327800300123648</v>
+        <v>-0.007634547263495683</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.017891144358563</v>
+        <v>0.02474393154666018</v>
       </c>
       <c r="C15">
-        <v>0.01791963279236749</v>
+        <v>0.02492287020724516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01617364113589675</v>
+        <v>0.0135652301505942</v>
       </c>
       <c r="C16">
-        <v>0.01816206159554307</v>
+        <v>0.0134075728325963</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.003732450580706058</v>
+        <v>0.002335354721713706</v>
       </c>
       <c r="C17">
-        <v>0.001708758356218914</v>
+        <v>0.002354138943561801</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.01323973761755473</v>
+        <v>-0.01247589032967628</v>
       </c>
       <c r="C18">
-        <v>-0.01434227183741877</v>
+        <v>-0.01260486140363714</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01409220799400338</v>
+        <v>0.009794156732141977</v>
       </c>
       <c r="C19">
-        <v>0.01194333138827388</v>
+        <v>0.009597186049723476</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.003191444709969083</v>
+        <v>0.007312903020699734</v>
       </c>
       <c r="C20">
-        <v>0.003461271297134659</v>
+        <v>0.007505715429441116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.02270421014761894</v>
+        <v>0.02027959575408649</v>
       </c>
       <c r="C21">
-        <v>0.02434842301343001</v>
+        <v>0.02030354346026857</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02198437591034968</v>
+        <v>-0.02011529157467461</v>
       </c>
       <c r="C22">
-        <v>-0.02391061266343011</v>
+        <v>-0.02024734612613353</v>
       </c>
     </row>
   </sheetData>
